--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4186451.875858208</v>
+        <v>4184571.69608788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7383521.371511235</v>
+        <v>7383521.371511233</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142891</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149497</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>26.37026852524315</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143512</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150877</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>36.31437750815293</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7067178467369</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>59.77945773664924</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.38052139181579</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>149.3819392193796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>207.5440020263833</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.970603657254</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>39.14661165392175</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
         <v>207.5440020263834</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>179.2356473439435</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552118</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>93.73299755169671</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552065</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>126.747643036121</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4416,10 +4416,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>558.6732226496758</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>551.7277219004724</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011508</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,31 +5498,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1912.313820009359</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.7620218580374</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864047</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864047</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>120.5300287366501</v>
@@ -5680,7 +5680,7 @@
         <v>540.2879676172995</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1512.236490277925</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S19" t="n">
-        <v>1323.468653249752</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="T19" t="n">
-        <v>1323.468653249752</v>
+        <v>1273.802056521417</v>
       </c>
       <c r="U19" t="n">
-        <v>1045.492187519584</v>
+        <v>995.8255907912492</v>
       </c>
       <c r="V19" t="n">
-        <v>801.9598723699714</v>
+        <v>752.2932756416365</v>
       </c>
       <c r="W19" t="n">
-        <v>523.694875389285</v>
+        <v>601.4024279452933</v>
       </c>
       <c r="X19" t="n">
-        <v>306.8574975475418</v>
+        <v>601.4024279452933</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.7620218580374</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113634</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1757.603879777666</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.143944996363</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5914,10 @@
         <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449755</v>
+        <v>1045.492187519584</v>
       </c>
       <c r="V22" t="n">
-        <v>906.9806841449755</v>
+        <v>801.9598723699714</v>
       </c>
       <c r="W22" t="n">
-        <v>628.715687164289</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>411.8783093225458</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.2379032352899</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449762</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953634</v>
+        <v>841.5019043436298</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146769</v>
+        <v>660.455795915404</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729335</v>
+        <v>443.6184180736608</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.345994172933</v>
+        <v>349.6808968386829</v>
       </c>
       <c r="C28" t="n">
-        <v>168.345994172933</v>
+        <v>191.8968869670501</v>
       </c>
       <c r="D28" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366504</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937161</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172997</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449754</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953627</v>
+        <v>776.1586807676821</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146762</v>
+        <v>776.1586807676821</v>
       </c>
       <c r="X28" t="n">
-        <v>168.345994172933</v>
+        <v>559.3213029259389</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.345994172933</v>
+        <v>349.6808968386829</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729331</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729331</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729331</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729331</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820643</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820643</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820643</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449755</v>
+        <v>957.0062972345346</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953627</v>
+        <v>713.4739820849221</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146763</v>
+        <v>713.4739820849221</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729331</v>
+        <v>713.4739820849221</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729331</v>
+        <v>503.8335759976661</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6789,13 +6789,13 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504514</v>
@@ -7090,19 +7090,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.320249703573</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504737</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291358</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907257</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.88923345256772</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43092547709108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>158.8051956154455</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>168.7913288562258</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>134.3803966972198</v>
@@ -23905,10 +23905,10 @@
         <v>155.4529171376661</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>25.54317968626555</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>126.1004077914999</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.82072519897183</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856056</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>236.0500894189442</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.24669966693611</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>43.84182414080424</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169929</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169917</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>148.4490580367449</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625248.7725826561</v>
+        <v>625248.7725826564</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.725617676</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554812</v>
       </c>
       <c r="H2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554813</v>
       </c>
       <c r="I2" t="n">
+        <v>768665.9667554812</v>
+      </c>
+      <c r="J2" t="n">
+        <v>768665.9667554811</v>
+      </c>
+      <c r="K2" t="n">
         <v>768665.9667554813</v>
       </c>
-      <c r="J2" t="n">
-        <v>768665.9667554813</v>
-      </c>
-      <c r="K2" t="n">
-        <v>768665.9667554812</v>
-      </c>
       <c r="L2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176769</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.7256176767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176766</v>
       </c>
       <c r="P2" t="n">
         <v>800515.7256176767</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569161</v>
+        <v>8832.521060569186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371259</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
+        <v>18678.59412427843</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18678.59412427841</v>
+      </c>
+      <c r="I4" t="n">
         <v>18678.5941242784</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>18678.59412427838</v>
+      </c>
+      <c r="K4" t="n">
         <v>18678.5941242784</v>
       </c>
-      <c r="I4" t="n">
-        <v>18678.59412427841</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18678.59412427842</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18678.59412427841</v>
-      </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275961</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.4568627596</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150038</v>
+        <v>-29086.18991150023</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.689303044</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030442</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414807</v>
+        <v>130216.1753155084</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183769</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="G6" t="n">
-        <v>648239.349105616</v>
+        <v>648157.6830572512</v>
       </c>
       <c r="H6" t="n">
-        <v>657071.8701661852</v>
+        <v>656990.2041178206</v>
       </c>
       <c r="I6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178204</v>
       </c>
       <c r="J6" t="n">
-        <v>480648.6509735923</v>
+        <v>480566.9849252272</v>
       </c>
       <c r="K6" t="n">
-        <v>657071.870166185</v>
+        <v>656990.2041178205</v>
       </c>
       <c r="L6" t="n">
-        <v>610830.6508311795</v>
+        <v>610830.6508311791</v>
       </c>
       <c r="M6" t="n">
-        <v>530535.1477010545</v>
+        <v>530535.1477010546</v>
       </c>
       <c r="N6" t="n">
         <v>665336.1629348915</v>
       </c>
       <c r="O6" t="n">
-        <v>665336.1629348916</v>
+        <v>665336.1629348918</v>
       </c>
       <c r="P6" t="n">
         <v>665336.1629348918</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797264</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058453</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>343.3608321532259</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393815</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007139</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915819</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127698</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
@@ -36765,13 +36765,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37002,13 +37002,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37157,7 +37157,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>513.2182750716003</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37166,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37388,7 +37388,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.9022662376418</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
